--- a/biology/Médecine/Peter_Lehmann/Peter_Lehmann.xlsx
+++ b/biology/Médecine/Peter_Lehmann/Peter_Lehmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Lehmann (né à Calw en Bade-Wurtemberg le 3 septembre 1950) est un écrivain et éditeur de livres allemand. Il est aussi un militant indépendant international d'antipsychiatrie humaniste et du mouvement des survivants de la psychiatrie. Il habite à Berlin.
 </t>
@@ -511,15 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Lehmann, diplômé de pédagogie. Il est aujourd'hui écrivain, éditeur et libraire par correspondance à Berlin. En 1986, il fonde la maison d'édition Peter Lehmann Publishing. En 2003 il ouvre une succursale en Angleterre et une aux États-Unis en 2004. 
 En 1989, il devient membre de la fondation « Weglaufhaus » (« Maison de la fuite ») à Berlin. Depuis 1990 il est coéditeur de la revue Journal of Critical Psychology, Counselling and Psychotherapy (publiée en Angleterre). En 1990, il devient membre de la fondation PSYCHEX (Suisse) et en 1991 du Réseau Européen des (ex-) Usagers et Survivants de la Psychiatrie (REUSP, plus connu sous son acronyme anglais ENUSP ; voir Réseau mondial des usagers et survivants de la psychiatrie). De 1997 à 1999, il préside ENUSP et il est membre du Conseil d'Administration de Santé Mentale Europe, alors section européenne de la Fédération Mondiale pour la Santé Mentale.
 En 2002, Peter Lehmann devient membre de MindFreedom International et son représentant désigné auprès des Nations unies. De 2003 à 2010, il est membre de l'exécutif de ENUSP pour l'Europe du Nord-Est. En 2004, il devient membre de INTAR (le Réseau International pour les Méthodes Alternatives et le Rétablissement). En 2005, il devient membre des groupes Patients Rights Advocacy Waikato (Nouvelle-Zélande) et National Association for Rights Protection and Advocacy (États-Unis). En 2007, en tant que représentant de MindFreedom International et de ENUSP, il fait partie du comité d'organisation de la conférence « Traitements coercitifs en psychiatrie » de Association Mondiale de Psychiatrie, à Dresde. En 2008 il devient l'un des membres fondateurs du Mouvement Démocratique Européen pour la Santé Mentale.
-L’antipsychiatrie humaniste
-L’approche développée par Peter Lehmann à partir de perspectives plutôt paternalistes et académiques de Franco Basaglia, David Cooper, Michel Foucault, Ronald D. Laing et Thomas Szasz ainsi que celles fondées sur le vécu de militants du mouvement des usagers et survivants de la psychiatrie, tels que Linda Andre, Karl Bach Jensen (Danemark), Dorothea Buck, Judi Chamberlin, Leonard Frank, Maths Jesperson (Suède), Kerstin Kempker, Kate Millett, David Oaks, Tina Stöckle et Thilo von Trotha (Allemagne), a mené à la création d’une nouvelle discipline : l’antipsychiatrie humaniste. Pour Peter Lehmann c’est une philosophie et un mouvement non dogmatiques. Le terme vient du grec « anti » dont le sens est plus large que le simple « contre ». Elle se réfère aussi aux « alternatives », à ce qui se trouve « au-delà de » ou encore à la notion d’« indépendance ».
-Pour Peter Lehmann et ses collègues, l’antipsychiatrie humaniste est axée vers les intérêts des (ex)usagers et survivants de la psychiatrie dont les préoccupations principales sont l’autodétermination et l’absence de violences corporelles liées aux traitements. Cette approche n’a aucune connexion avec l’industrie pharmaceutique ou les organisations qui en sont dépendantes, ou avec la Scientologie ou toutes autres sectes ou dogmatistes de quelque couleur que ce soit. Outre la santé, rien ne leur est plus important que les notions de liberté et d’indépendance. Ceux qui soutiennent les traitements sous la contrainte et l’industrie pharmaceutique combattent ainsi avec une véhémence particulièrement virulente l’antipsychiatrie humaniste moderne, orientée et dirigée par des usagers et survivants.
-En conséquence, l’approche de l’antipsychiatrie humaniste est anticonformiste et est fondée sur la conviction fondamentale que : (1) La psychiatrie en tant que discipline médicale  n’est pas en mesure de résoudre des problèmes de santé mentale qui sont en grande partie de nature sociale, (2) sa propension et sa pratique de l’utilisation de la contrainte constituent une menace, et (3) ses méthodes de diagnostic empêchent de voir la nature réelle des problèmes des individus dans la société. Pour ces raisons, l’antipsychiatrie humaniste telle que la conçoit Peter Lehmann demande que : (1) Soit développée une assistance adéquate et effective des personnes en détresse psychologique, (2) des mesures soient mises en place afin de sauvegarder l’inclusion sociale de ces personnes grâce à un revenu de base inconditionnel ainsi que leurs droits civils dans le cadre des traitements sur la même base que celle des patients des autres disciplines de la médecine, (3) que se renforce la coopération avec les autres associations concernées par les droits de l’homme et les groupes d’entraide mutuelle, (4) soit interdites les thérapies par les électrochocs, (5) l’on crée de nouvelles manières de vivre avec la folie et la différence y compris de manière aussi indépendante que possible des institutions, et (6) il y ait plus de tolérance, de respect et d’appréciation de la diversité dans tous les domaines de la vie.
 </t>
         </is>
       </c>
@@ -545,13 +555,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En 2010, le département de philosophie de l'université Aristote de Thessalonique (Grèce) lui accorde le titre de docteur honoris causa en reconnaissance de ses « mérites extraordinaires sur le plan scientifique et humanitaire pour le renforcement des droits d'(ex-)usagers et survivants de la psychiatrie ». Peter Lehmann est le premier « survivant » au monde à avoir été honoré d’un diplôme honorifique en reconnaissance de son parcours pionnier dans le domaine de la psychiatrie humaniste.
-En 2011, la Croix fédérale du mérite lui est conférée en reconnaissance « des grands services rendus en faveur du peuple et de l'État », par le président fédéral de la République fédérale d’Allemagne.</t>
+          <t>L’antipsychiatrie humaniste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’approche développée par Peter Lehmann à partir de perspectives plutôt paternalistes et académiques de Franco Basaglia, David Cooper, Michel Foucault, Ronald D. Laing et Thomas Szasz ainsi que celles fondées sur le vécu de militants du mouvement des usagers et survivants de la psychiatrie, tels que Linda Andre, Karl Bach Jensen (Danemark), Dorothea Buck, Judi Chamberlin, Leonard Frank, Maths Jesperson (Suède), Kerstin Kempker, Kate Millett, David Oaks, Tina Stöckle et Thilo von Trotha (Allemagne), a mené à la création d’une nouvelle discipline : l’antipsychiatrie humaniste. Pour Peter Lehmann c’est une philosophie et un mouvement non dogmatiques. Le terme vient du grec « anti » dont le sens est plus large que le simple « contre ». Elle se réfère aussi aux « alternatives », à ce qui se trouve « au-delà de » ou encore à la notion d’« indépendance ».
+Pour Peter Lehmann et ses collègues, l’antipsychiatrie humaniste est axée vers les intérêts des (ex)usagers et survivants de la psychiatrie dont les préoccupations principales sont l’autodétermination et l’absence de violences corporelles liées aux traitements. Cette approche n’a aucune connexion avec l’industrie pharmaceutique ou les organisations qui en sont dépendantes, ou avec la Scientologie ou toutes autres sectes ou dogmatistes de quelque couleur que ce soit. Outre la santé, rien ne leur est plus important que les notions de liberté et d’indépendance. Ceux qui soutiennent les traitements sous la contrainte et l’industrie pharmaceutique combattent ainsi avec une véhémence particulièrement virulente l’antipsychiatrie humaniste moderne, orientée et dirigée par des usagers et survivants.
+En conséquence, l’approche de l’antipsychiatrie humaniste est anticonformiste et est fondée sur la conviction fondamentale que : (1) La psychiatrie en tant que discipline médicale  n’est pas en mesure de résoudre des problèmes de santé mentale qui sont en grande partie de nature sociale, (2) sa propension et sa pratique de l’utilisation de la contrainte constituent une menace, et (3) ses méthodes de diagnostic empêchent de voir la nature réelle des problèmes des individus dans la société. Pour ces raisons, l’antipsychiatrie humaniste telle que la conçoit Peter Lehmann demande que : (1) Soit développée une assistance adéquate et effective des personnes en détresse psychologique, (2) des mesures soient mises en place afin de sauvegarder l’inclusion sociale de ces personnes grâce à un revenu de base inconditionnel ainsi que leurs droits civils dans le cadre des traitements sur la même base que celle des patients des autres disciplines de la médecine, (3) que se renforce la coopération avec les autres associations concernées par les droits de l’homme et les groupes d’entraide mutuelle, (4) soit interdites les thérapies par les électrochocs, (5) l’on crée de nouvelles manières de vivre avec la folie et la différence y compris de manière aussi indépendante que possible des institutions, et (6) il y ait plus de tolérance, de respect et d’appréciation de la diversité dans tous les domaines de la vie.
+</t>
         </is>
       </c>
     </row>
@@ -576,22 +594,94 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 2010, le département de philosophie de l'université Aristote de Thessalonique (Grèce) lui accorde le titre de docteur honoris causa en reconnaissance de ses « mérites extraordinaires sur le plan scientifique et humanitaire pour le renforcement des droits d'(ex-)usagers et survivants de la psychiatrie ». Peter Lehmann est le premier « survivant » au monde à avoir été honoré d’un diplôme honorifique en reconnaissance de son parcours pionnier dans le domaine de la psychiatrie humaniste.
+En 2011, la Croix fédérale du mérite lui est conférée en reconnaissance « des grands services rendus en faveur du peuple et de l'État », par le président fédéral de la République fédérale d’Allemagne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Peter_Lehmann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peter_Lehmann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ouvrages
-« Psychopharmaka reduzieren und absetzen. Praxiskonzepte für Fachkräfte, Betroffene, Angehörige » (Réduire et arrêter les médicaments psychotropes. Concepts pratiques pour les professionnels, les personnes concernées et les proches), codirigé avec Craig Newnes, 2023  (ISBN 978-3-925931-99-4).
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Psychopharmaka reduzieren und absetzen. Praxiskonzepte für Fachkräfte, Betroffene, Angehörige » (Réduire et arrêter les médicaments psychotropes. Concepts pratiques pour les professionnels, les personnes concernées et les proches), codirigé avec Craig Newnes, 2023  (ISBN 978-3-925931-99-4).
 « Withdrawal from prescribed psychotropic drugs » (Sevrage de médicaments psychotropes prescrits), codirigé avec Craig Newnes, 2021  (ISBN 978-3-925931-98-7).
 « Psychotropes, Réussir son Sevrage – Se désaccoutumer avec succès des neuroleptiques, antidéprésseurs, thymorégulateurs, psychostimulants et tranquillisants », Embourg, Belgique: Editions Résurgence (Marco Pietteur) 2018  (ISBN 978-2-87434-170-0).
 « Neue Antidepressiva, atypische Neuroleptika – Risiken, Placebo-Effekte, Niedrigdosierung und Alternativen. Mit einem Exkurs zur Wiederkehr des Elektroschocks (Nouveaux antidépresseurs, neuroleptiques atypiques – risques, effets placebo, faibles doses et alternatives. Avec une digression sur le retour de l'électrochocs), avec Volkmar Aderhold, Marc Rufer et Josef Zehentbauer, 2017  (ISBN 978-3-925931-68-0). Livre électronique en 2018.
 « Statt Psychiatrie 2 »  (ISBN 978-3-925931-38-3) ; « Alternatives beyond psychiatry » (Alternatives à la psychiatrie)  (ISBN 978-0-9545428-1-8) (RU),  (ISBN 978-0-9788399-1-8) (États-Unis), les deux codirigé avec Peter Stastny, 2007. Livre électronique en 2018.
 « Schöne neue Psychiatrie » (Belle nouvelle psychiatrie), 1996  (ISBN 978-3-925931-11-6). Nouvelle édition comme livre électronique en 2018.
 « Statt Psychiatrie » (Alternative à la psychiatrie), codirigé avec Kerstin Kempker, 1993  (ISBN 3-925931-07-4).
-« Der chemische Knebel – Warum Psychiater Neuroleptika verabreichen » (Le bâillon chimique – Pourquoi les psychiatres administrent les neuroleptiques), 1986, 7e édition 2015  (ISBN 978-3-925931-31-4).
-Articles
-(2022). A concise guide to electroshock: Indications, mode of action, risks, alternatives. Journal of Critical Psychology, Counselling and Psychotherapy (RU), 22(3), 36-45.
+« Der chemische Knebel – Warum Psychiater Neuroleptika verabreichen » (Le bâillon chimique – Pourquoi les psychiatres administrent les neuroleptiques), 1986, 7e édition 2015  (ISBN 978-3-925931-31-4).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Peter_Lehmann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Peter_Lehmann</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(2022). A concise guide to electroshock: Indications, mode of action, risks, alternatives. Journal of Critical Psychology, Counselling and Psychotherapy (RU), 22(3), 36-45.
 (2019). Fiches d’information sur les antidépresseurs et les antipsychotiques – indépendantes de l’industrie et orientées envers les patients. à jour ! Évolution de la profession de psychothérapeute – Informations pour les membres ASP (Association Suisse des Psychothérapeutes)  (Zurich), (2), 64-66.
 (2019). Paradigm shift: Treatment alternatives to psychiatric drugs, with particular reference to low- and middle-income countries. In: L. Davidson (Ed.), The Routledge Handbook of International Development, Mental Health and Wellbeing  (pp.  251-269). London / New York: Routledge  (ISBN 978-0-367-02773-5).
 (2019). Transparency first. Disclosure of conflicts of interest in the psychiatric field. Journal of Critical Psychology, Counselling and Psychotherapy (U.K.), 19(2), 131-151.
